--- a/Planning/GanttChart.xlsx
+++ b/Planning/GanttChart.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D7A152-3A07-4FB1-8F49-08CDB4497FB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D1567E-AAF8-4210-8904-4183FF6C14FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="2220" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Start Date</t>
   </si>
@@ -62,6 +62,36 @@
   </si>
   <si>
     <t>Tasks</t>
+  </si>
+  <si>
+    <t>Decide on a programming language</t>
+  </si>
+  <si>
+    <t>Research into general ethics</t>
+  </si>
+  <si>
+    <t>Develop a basic action plan</t>
+  </si>
+  <si>
+    <t>Establish concept design requirements</t>
+  </si>
+  <si>
+    <t>Produce a gantt chart</t>
+  </si>
+  <si>
+    <t>Begin studying JS</t>
+  </si>
+  <si>
+    <t>Create graphics for people in scenarios</t>
+  </si>
+  <si>
+    <t>Create graphics for environment</t>
+  </si>
+  <si>
+    <t>Create car graphics</t>
+  </si>
+  <si>
+    <t>Decide conditions for scenarios</t>
   </si>
 </sst>
 </file>
@@ -167,20 +197,20 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$A$2:$A$9</c:f>
+              <c:f>Tabelle1!$A$2:$A$19</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>Begin work on scenarios</c:v>
+                  <c:v>Decide on a programming language</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Create concept poster</c:v>
+                  <c:v>Research into general ethics</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Research poster styles/themes</c:v>
+                  <c:v>Develop a basic action plan</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Create first draft of poster</c:v>
+                  <c:v>Establish concept design requirements</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Conceptual designs(First Person)</c:v>
@@ -193,39 +223,99 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Design a basic decision tree</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Produce a gantt chart</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Begin work on scenarios</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Create concept poster</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Research poster styles/themes</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Create first draft of poster</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Decide conditions for scenarios</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Begin studying JS</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Create graphics for people in scenarios</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Create graphics for environment</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Create car graphics</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$C$2:$C$9</c:f>
+              <c:f>Tabelle1!$C$2:$C$19</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
+                  <c:v>43762</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43762</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43762</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43763</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43763</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43763</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43763</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43763</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>43769</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="9">
                   <c:v>43769</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="10">
                   <c:v>43769</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="11">
                   <c:v>43769</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="12">
                   <c:v>43769</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="13">
                   <c:v>43769</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="14">
                   <c:v>43769</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>43769</c:v>
+                <c:pt idx="15">
+                  <c:v>43776</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43776</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43776</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -251,20 +341,20 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$A$2:$A$9</c:f>
+              <c:f>Tabelle1!$A$2:$A$19</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>Begin work on scenarios</c:v>
+                  <c:v>Decide on a programming language</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Create concept poster</c:v>
+                  <c:v>Research into general ethics</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Research poster styles/themes</c:v>
+                  <c:v>Develop a basic action plan</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Create first draft of poster</c:v>
+                  <c:v>Establish concept design requirements</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Conceptual designs(First Person)</c:v>
@@ -277,39 +367,87 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Design a basic decision tree</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Produce a gantt chart</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Begin work on scenarios</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Create concept poster</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Research poster styles/themes</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Create first draft of poster</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Decide conditions for scenarios</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Begin studying JS</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Create graphics for people in scenarios</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Create graphics for environment</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Create car graphics</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$D$2:$D$9</c:f>
+              <c:f>Tabelle1!$D$2:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>14</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>81</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="13">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -403,7 +541,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="43921"/>
-          <c:min val="43769"/>
+          <c:min val="43762"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="t"/>
@@ -1054,15 +1192,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>163286</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>111578</xdr:rowOff>
+      <xdr:colOff>84845</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>21930</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>414617</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>176078</xdr:rowOff>
+      <xdr:colOff>336176</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1605,15 +1743,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" customWidth="1"/>
+    <col min="1" max="1" width="37.28515625" customWidth="1"/>
     <col min="2" max="2" width="18.140625" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
@@ -1636,62 +1774,62 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1">
-        <v>43769</v>
+        <v>43762</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D9" si="0">E2-C2</f>
-        <v>14</v>
+        <f t="shared" ref="D2" si="0">E2-C2</f>
+        <v>1</v>
       </c>
       <c r="E2" s="1">
-        <v>43783</v>
+        <v>43763</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1">
+        <v>43762</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D15" si="1">E3-C3</f>
+        <v>7</v>
+      </c>
+      <c r="E3" s="1">
         <v>43769</v>
-      </c>
-      <c r="D3">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="E3" s="1">
-        <v>43790</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1">
-        <v>43769</v>
+        <v>43762</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="E4" s="1">
-        <v>43783</v>
+        <v>43776</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1">
-        <v>43769</v>
+        <v>43763</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
-        <v>81</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="E5" s="1">
-        <v>43850</v>
+        <v>43764</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1699,11 +1837,11 @@
         <v>9</v>
       </c>
       <c r="C6" s="1">
-        <v>43769</v>
+        <v>43763</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>13</v>
       </c>
       <c r="E6" s="1">
         <v>43776</v>
@@ -1714,11 +1852,11 @@
         <v>10</v>
       </c>
       <c r="C7" s="1">
-        <v>43769</v>
+        <v>43763</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>13</v>
       </c>
       <c r="E7" s="1">
         <v>43776</v>
@@ -1729,14 +1867,14 @@
         <v>7</v>
       </c>
       <c r="C8" s="1">
-        <v>43769</v>
+        <v>43763</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>13</v>
       </c>
       <c r="E8" s="1">
-        <v>43770</v>
+        <v>43776</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1744,13 +1882,135 @@
         <v>8</v>
       </c>
       <c r="C9" s="1">
+        <v>43763</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="E9" s="1">
+        <v>43776</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="1">
         <v>43769</v>
       </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E10" s="1">
+        <v>43775</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1">
+        <v>43769</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="E11" s="1">
+        <v>43783</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1">
+        <v>43769</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="E12" s="1">
+        <v>43790</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1">
+        <v>43769</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="E13" s="1">
+        <v>43783</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1">
+        <v>43769</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="E14" s="1">
+        <v>43850</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="1">
+        <v>43769</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>43770</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="1">
+        <v>43769</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="1">
+        <v>43776</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="1">
+        <v>43776</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="1">
         <v>43776</v>
       </c>
     </row>
